--- a/online_translators/xlsx_accuracy/smooth_translation_adjective.xlsx
+++ b/online_translators/xlsx_accuracy/smooth_translation_adjective.xlsx
@@ -397,7 +397,7 @@
       </c>
       <c r="B2" t="s"/>
       <c r="C2" t="n">
-        <v>0.25</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="D2" t="n">
         <v>0.08695652173913043</v>
